--- a/warframe_dmg_calc/weapons/Braton_Prime/Braton_Prime.xlsx
+++ b/warframe_dmg_calc/weapons/Braton_Prime/Braton_Prime.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marti\Desktop\Git_Repos\Martin_MATLAB\warframe_dmg_calc\weapons\Braton_Prime\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC6D466-8130-41DB-B99B-CF6E5692D25C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A28AF4-3346-448E-8C69-5693424EBB5B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="1320" windowWidth="21975" windowHeight="10485" xr2:uid="{89C25306-13C6-4780-B032-115D1EC72902}"/>
+    <workbookView xWindow="0" yWindow="1425" windowWidth="21975" windowHeight="10485" xr2:uid="{89C25306-13C6-4780-B032-115D1EC72902}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -489,7 +489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7E9BDA-6495-4919-9DE8-BA50C2714330}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -573,7 +575,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>26</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
